--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt16-Lrp5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt16-Lrp5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Wnt16</t>
   </si>
   <si>
     <t>Lrp5</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.4776706666666667</v>
+        <v>0.2864443333333334</v>
       </c>
       <c r="H2">
-        <v>1.433012</v>
+        <v>0.859333</v>
       </c>
       <c r="I2">
-        <v>0.8538091904371788</v>
+        <v>0.2576187682440476</v>
       </c>
       <c r="J2">
-        <v>0.8538091904371788</v>
+        <v>0.2576187682440476</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.82379233333333</v>
+        <v>17.08155333333333</v>
       </c>
       <c r="N2">
-        <v>53.471377</v>
+        <v>51.24466</v>
       </c>
       <c r="O2">
-        <v>0.4233776263711466</v>
+        <v>0.3501540759902865</v>
       </c>
       <c r="P2">
-        <v>0.4233776263711467</v>
+        <v>0.3501540759902865</v>
       </c>
       <c r="Q2">
-        <v>8.513902766391556</v>
+        <v>4.892914156864444</v>
       </c>
       <c r="R2">
-        <v>76.62512489752402</v>
+        <v>44.03622741178</v>
       </c>
       <c r="S2">
-        <v>0.3614837084211631</v>
+        <v>0.09020626175225024</v>
       </c>
       <c r="T2">
-        <v>0.3614837084211631</v>
+        <v>0.09020626175225023</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.4776706666666667</v>
+        <v>0.2864443333333334</v>
       </c>
       <c r="H3">
-        <v>1.433012</v>
+        <v>0.859333</v>
       </c>
       <c r="I3">
-        <v>0.8538091904371788</v>
+        <v>0.2576187682440476</v>
       </c>
       <c r="J3">
-        <v>0.8538091904371788</v>
+        <v>0.2576187682440476</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>31.359219</v>
       </c>
       <c r="O3">
-        <v>0.2482971722436279</v>
+        <v>0.2142771237573249</v>
       </c>
       <c r="P3">
-        <v>0.2482971722436279</v>
+        <v>0.2142771237573249</v>
       </c>
       <c r="Q3">
-        <v>4.993126348625334</v>
+        <v>2.994223526769667</v>
       </c>
       <c r="R3">
-        <v>44.938137137628</v>
+        <v>26.948011740927</v>
       </c>
       <c r="S3">
-        <v>0.2119984076211727</v>
+        <v>0.05520180868523939</v>
       </c>
       <c r="T3">
-        <v>0.2119984076211727</v>
+        <v>0.05520180868523938</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.4776706666666667</v>
+        <v>0.2864443333333334</v>
       </c>
       <c r="H4">
-        <v>1.433012</v>
+        <v>0.859333</v>
       </c>
       <c r="I4">
-        <v>0.8538091904371788</v>
+        <v>0.2576187682440476</v>
       </c>
       <c r="J4">
-        <v>0.8538091904371788</v>
+        <v>0.2576187682440476</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.27602</v>
+        <v>8.398122666666666</v>
       </c>
       <c r="N4">
-        <v>12.82806</v>
+        <v>25.194368</v>
       </c>
       <c r="O4">
-        <v>0.1015704830969034</v>
+        <v>0.1721527793764119</v>
       </c>
       <c r="P4">
-        <v>0.1015704830969034</v>
+        <v>0.1721527793764119</v>
       </c>
       <c r="Q4">
-        <v>2.04252932408</v>
+        <v>2.405594648504889</v>
       </c>
       <c r="R4">
-        <v>18.38276391672</v>
+        <v>21.650351836544</v>
       </c>
       <c r="S4">
-        <v>0.08672181194528028</v>
+        <v>0.04434978697274053</v>
       </c>
       <c r="T4">
-        <v>0.08672181194528029</v>
+        <v>0.04434978697274052</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.4776706666666667</v>
+        <v>0.2864443333333334</v>
       </c>
       <c r="H5">
-        <v>1.433012</v>
+        <v>0.859333</v>
       </c>
       <c r="I5">
-        <v>0.8538091904371788</v>
+        <v>0.2576187682440476</v>
       </c>
       <c r="J5">
-        <v>0.8538091904371788</v>
+        <v>0.2576187682440476</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.015535666666667</v>
+        <v>4.514486333333333</v>
       </c>
       <c r="N5">
-        <v>9.046607</v>
+        <v>13.543459</v>
       </c>
       <c r="O5">
-        <v>0.07162955609638778</v>
+        <v>0.09254227409953211</v>
       </c>
       <c r="P5">
-        <v>0.07162955609638778</v>
+        <v>0.09254227409953213</v>
       </c>
       <c r="Q5">
-        <v>1.440432932253778</v>
+        <v>1.293149028094111</v>
       </c>
       <c r="R5">
-        <v>12.963896390284</v>
+        <v>11.638341252847</v>
       </c>
       <c r="S5">
-        <v>0.06115797330203134</v>
+        <v>0.02384062666402449</v>
       </c>
       <c r="T5">
-        <v>0.06115797330203134</v>
+        <v>0.02384062666402449</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.4776706666666667</v>
+        <v>0.2864443333333334</v>
       </c>
       <c r="H6">
-        <v>1.433012</v>
+        <v>0.859333</v>
       </c>
       <c r="I6">
-        <v>0.8538091904371788</v>
+        <v>0.2576187682440476</v>
       </c>
       <c r="J6">
-        <v>0.8538091904371788</v>
+        <v>0.2576187682440476</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.530620666666667</v>
+        <v>8.335727666666667</v>
       </c>
       <c r="N6">
-        <v>19.591862</v>
+        <v>25.007183</v>
       </c>
       <c r="O6">
-        <v>0.1551251621919343</v>
+        <v>0.1708737467764446</v>
       </c>
       <c r="P6">
-        <v>0.1551251621919343</v>
+        <v>0.1708737467764446</v>
       </c>
       <c r="Q6">
-        <v>3.119485927593778</v>
+        <v>2.387721954326556</v>
       </c>
       <c r="R6">
-        <v>28.075373348344</v>
+        <v>21.489497588939</v>
       </c>
       <c r="S6">
-        <v>0.1324472891475315</v>
+        <v>0.04402028416979296</v>
       </c>
       <c r="T6">
-        <v>0.1324472891475315</v>
+        <v>0.04402028416979296</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,31 +835,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.08178766666666666</v>
+        <v>0.4776706666666667</v>
       </c>
       <c r="H7">
-        <v>0.245363</v>
+        <v>1.433012</v>
       </c>
       <c r="I7">
-        <v>0.1461908095628212</v>
+        <v>0.4296015471521973</v>
       </c>
       <c r="J7">
-        <v>0.1461908095628212</v>
+        <v>0.4296015471521973</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.82379233333333</v>
+        <v>17.08155333333333</v>
       </c>
       <c r="N7">
-        <v>53.471377</v>
+        <v>51.24466</v>
       </c>
       <c r="O7">
-        <v>0.4233776263711466</v>
+        <v>0.3501540759902865</v>
       </c>
       <c r="P7">
-        <v>0.4233776263711467</v>
+        <v>0.3501540759902865</v>
       </c>
       <c r="Q7">
-        <v>1.457766386094556</v>
+        <v>8.159356968435556</v>
       </c>
       <c r="R7">
-        <v>13.119897474851</v>
+        <v>73.43421271592</v>
       </c>
       <c r="S7">
-        <v>0.06189391794998354</v>
+        <v>0.1504267327870751</v>
       </c>
       <c r="T7">
-        <v>0.06189391794998355</v>
+        <v>0.1504267327870751</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,31 +897,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.08178766666666666</v>
+        <v>0.4776706666666667</v>
       </c>
       <c r="H8">
-        <v>0.245363</v>
+        <v>1.433012</v>
       </c>
       <c r="I8">
-        <v>0.1461908095628212</v>
+        <v>0.4296015471521973</v>
       </c>
       <c r="J8">
-        <v>0.1461908095628212</v>
+        <v>0.4296015471521973</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>31.359219</v>
       </c>
       <c r="O8">
-        <v>0.2482971722436279</v>
+        <v>0.2142771237573249</v>
       </c>
       <c r="P8">
-        <v>0.2482971722436279</v>
+        <v>0.2142771237573249</v>
       </c>
       <c r="Q8">
-        <v>0.8549324501663332</v>
+        <v>4.993126348625334</v>
       </c>
       <c r="R8">
-        <v>7.694392051497</v>
+        <v>44.938137137628</v>
       </c>
       <c r="S8">
-        <v>0.0362987646224552</v>
+        <v>0.09205378388546961</v>
       </c>
       <c r="T8">
-        <v>0.0362987646224552</v>
+        <v>0.09205378388546961</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,31 +959,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.08178766666666666</v>
+        <v>0.4776706666666667</v>
       </c>
       <c r="H9">
-        <v>0.245363</v>
+        <v>1.433012</v>
       </c>
       <c r="I9">
-        <v>0.1461908095628212</v>
+        <v>0.4296015471521973</v>
       </c>
       <c r="J9">
-        <v>0.1461908095628212</v>
+        <v>0.4296015471521973</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.27602</v>
+        <v>8.398122666666666</v>
       </c>
       <c r="N9">
-        <v>12.82806</v>
+        <v>25.194368</v>
       </c>
       <c r="O9">
-        <v>0.1015704830969034</v>
+        <v>0.1721527793764119</v>
       </c>
       <c r="P9">
-        <v>0.1015704830969034</v>
+        <v>0.1721527793764119</v>
       </c>
       <c r="Q9">
-        <v>0.34972569842</v>
+        <v>4.011536852935111</v>
       </c>
       <c r="R9">
-        <v>3.14753128578</v>
+        <v>36.103831676416</v>
       </c>
       <c r="S9">
-        <v>0.01484867115162315</v>
+        <v>0.07395710036665745</v>
       </c>
       <c r="T9">
-        <v>0.01484867115162316</v>
+        <v>0.07395710036665745</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,31 +1021,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.08178766666666666</v>
+        <v>0.4776706666666667</v>
       </c>
       <c r="H10">
-        <v>0.245363</v>
+        <v>1.433012</v>
       </c>
       <c r="I10">
-        <v>0.1461908095628212</v>
+        <v>0.4296015471521973</v>
       </c>
       <c r="J10">
-        <v>0.1461908095628212</v>
+        <v>0.4296015471521973</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.015535666666667</v>
+        <v>4.514486333333333</v>
       </c>
       <c r="N10">
-        <v>9.046607</v>
+        <v>13.543459</v>
       </c>
       <c r="O10">
-        <v>0.07162955609638778</v>
+        <v>0.09254227409953211</v>
       </c>
       <c r="P10">
-        <v>0.07162955609638778</v>
+        <v>0.09254227409953213</v>
       </c>
       <c r="Q10">
-        <v>0.2466336259267778</v>
+        <v>2.156437696500889</v>
       </c>
       <c r="R10">
-        <v>2.219702633341</v>
+        <v>19.407939268508</v>
       </c>
       <c r="S10">
-        <v>0.01047158279435644</v>
+        <v>0.03975630413014171</v>
       </c>
       <c r="T10">
-        <v>0.01047158279435644</v>
+        <v>0.03975630413014172</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,991 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.4776706666666667</v>
+      </c>
+      <c r="H11">
+        <v>1.433012</v>
+      </c>
+      <c r="I11">
+        <v>0.4296015471521973</v>
+      </c>
+      <c r="J11">
+        <v>0.4296015471521973</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>8.335727666666667</v>
+      </c>
+      <c r="N11">
+        <v>25.007183</v>
+      </c>
+      <c r="O11">
+        <v>0.1708737467764446</v>
+      </c>
+      <c r="P11">
+        <v>0.1708737467764446</v>
+      </c>
+      <c r="Q11">
+        <v>3.981732591688445</v>
+      </c>
+      <c r="R11">
+        <v>35.83559332519601</v>
+      </c>
+      <c r="S11">
+        <v>0.0734076259828534</v>
+      </c>
+      <c r="T11">
+        <v>0.0734076259828534</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.2046246666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.613874</v>
+      </c>
+      <c r="I12">
+        <v>0.1840328065337261</v>
+      </c>
+      <c r="J12">
+        <v>0.1840328065337261</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>17.08155333333333</v>
+      </c>
+      <c r="N12">
+        <v>51.24466</v>
+      </c>
+      <c r="O12">
+        <v>0.3501540759902865</v>
+      </c>
+      <c r="P12">
+        <v>0.3501540759902865</v>
+      </c>
+      <c r="Q12">
+        <v>3.495307156982222</v>
+      </c>
+      <c r="R12">
+        <v>31.45776441284</v>
+      </c>
+      <c r="S12">
+        <v>0.06443983732371603</v>
+      </c>
+      <c r="T12">
+        <v>0.06443983732371603</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.2046246666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.613874</v>
+      </c>
+      <c r="I13">
+        <v>0.1840328065337261</v>
+      </c>
+      <c r="J13">
+        <v>0.1840328065337261</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>10.453073</v>
+      </c>
+      <c r="N13">
+        <v>31.359219</v>
+      </c>
+      <c r="O13">
+        <v>0.2142771237573249</v>
+      </c>
+      <c r="P13">
+        <v>0.2142771237573249</v>
+      </c>
+      <c r="Q13">
+        <v>2.138956578267333</v>
+      </c>
+      <c r="R13">
+        <v>19.250609204406</v>
+      </c>
+      <c r="S13">
+        <v>0.03943402046103506</v>
+      </c>
+      <c r="T13">
+        <v>0.03943402046103506</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.2046246666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.613874</v>
+      </c>
+      <c r="I14">
+        <v>0.1840328065337261</v>
+      </c>
+      <c r="J14">
+        <v>0.1840328065337261</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>8.398122666666666</v>
+      </c>
+      <c r="N14">
+        <v>25.194368</v>
+      </c>
+      <c r="O14">
+        <v>0.1721527793764119</v>
+      </c>
+      <c r="P14">
+        <v>0.1721527793764119</v>
+      </c>
+      <c r="Q14">
+        <v>1.718463051292444</v>
+      </c>
+      <c r="R14">
+        <v>15.466167461632</v>
+      </c>
+      <c r="S14">
+        <v>0.03168175914122245</v>
+      </c>
+      <c r="T14">
+        <v>0.03168175914122245</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.2046246666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.613874</v>
+      </c>
+      <c r="I15">
+        <v>0.1840328065337261</v>
+      </c>
+      <c r="J15">
+        <v>0.1840328065337261</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>4.514486333333333</v>
+      </c>
+      <c r="N15">
+        <v>13.543459</v>
+      </c>
+      <c r="O15">
+        <v>0.09254227409953211</v>
+      </c>
+      <c r="P15">
+        <v>0.09254227409953213</v>
+      </c>
+      <c r="Q15">
+        <v>0.9237752611295555</v>
+      </c>
+      <c r="R15">
+        <v>8.313977350166001</v>
+      </c>
+      <c r="S15">
+        <v>0.01703081442555025</v>
+      </c>
+      <c r="T15">
+        <v>0.01703081442555025</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.2046246666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.613874</v>
+      </c>
+      <c r="I16">
+        <v>0.1840328065337261</v>
+      </c>
+      <c r="J16">
+        <v>0.1840328065337261</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>8.335727666666667</v>
+      </c>
+      <c r="N16">
+        <v>25.007183</v>
+      </c>
+      <c r="O16">
+        <v>0.1708737467764446</v>
+      </c>
+      <c r="P16">
+        <v>0.1708737467764446</v>
+      </c>
+      <c r="Q16">
+        <v>1.705695495215778</v>
+      </c>
+      <c r="R16">
+        <v>15.351259456942</v>
+      </c>
+      <c r="S16">
+        <v>0.03144637518220234</v>
+      </c>
+      <c r="T16">
+        <v>0.03144637518220234</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G11">
-        <v>0.08178766666666666</v>
-      </c>
-      <c r="H11">
-        <v>0.245363</v>
-      </c>
-      <c r="I11">
-        <v>0.1461908095628212</v>
-      </c>
-      <c r="J11">
-        <v>0.1461908095628212</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>6.530620666666667</v>
-      </c>
-      <c r="N11">
-        <v>19.591862</v>
-      </c>
-      <c r="O11">
-        <v>0.1551251621919343</v>
-      </c>
-      <c r="P11">
-        <v>0.1551251621919343</v>
-      </c>
-      <c r="Q11">
-        <v>0.5341242262117777</v>
-      </c>
-      <c r="R11">
-        <v>4.807118035906</v>
-      </c>
-      <c r="S11">
-        <v>0.02267787304440281</v>
-      </c>
-      <c r="T11">
-        <v>0.02267787304440281</v>
+      <c r="G17">
+        <v>0.016355</v>
+      </c>
+      <c r="H17">
+        <v>0.049065</v>
+      </c>
+      <c r="I17">
+        <v>0.01470915799101651</v>
+      </c>
+      <c r="J17">
+        <v>0.01470915799101651</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>17.08155333333333</v>
+      </c>
+      <c r="N17">
+        <v>51.24466</v>
+      </c>
+      <c r="O17">
+        <v>0.3501540759902865</v>
+      </c>
+      <c r="P17">
+        <v>0.3501540759902865</v>
+      </c>
+      <c r="Q17">
+        <v>0.2793688047666666</v>
+      </c>
+      <c r="R17">
+        <v>2.5143192429</v>
+      </c>
+      <c r="S17">
+        <v>0.005150471624939526</v>
+      </c>
+      <c r="T17">
+        <v>0.005150471624939526</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.016355</v>
+      </c>
+      <c r="H18">
+        <v>0.049065</v>
+      </c>
+      <c r="I18">
+        <v>0.01470915799101651</v>
+      </c>
+      <c r="J18">
+        <v>0.01470915799101651</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>10.453073</v>
+      </c>
+      <c r="N18">
+        <v>31.359219</v>
+      </c>
+      <c r="O18">
+        <v>0.2142771237573249</v>
+      </c>
+      <c r="P18">
+        <v>0.2142771237573249</v>
+      </c>
+      <c r="Q18">
+        <v>0.170960008915</v>
+      </c>
+      <c r="R18">
+        <v>1.538640080235</v>
+      </c>
+      <c r="S18">
+        <v>0.00315183606720709</v>
+      </c>
+      <c r="T18">
+        <v>0.00315183606720709</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.016355</v>
+      </c>
+      <c r="H19">
+        <v>0.049065</v>
+      </c>
+      <c r="I19">
+        <v>0.01470915799101651</v>
+      </c>
+      <c r="J19">
+        <v>0.01470915799101651</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>8.398122666666666</v>
+      </c>
+      <c r="N19">
+        <v>25.194368</v>
+      </c>
+      <c r="O19">
+        <v>0.1721527793764119</v>
+      </c>
+      <c r="P19">
+        <v>0.1721527793764119</v>
+      </c>
+      <c r="Q19">
+        <v>0.1373512962133333</v>
+      </c>
+      <c r="R19">
+        <v>1.23616166592</v>
+      </c>
+      <c r="S19">
+        <v>0.002532222430440252</v>
+      </c>
+      <c r="T19">
+        <v>0.002532222430440253</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.016355</v>
+      </c>
+      <c r="H20">
+        <v>0.049065</v>
+      </c>
+      <c r="I20">
+        <v>0.01470915799101651</v>
+      </c>
+      <c r="J20">
+        <v>0.01470915799101651</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>4.514486333333333</v>
+      </c>
+      <c r="N20">
+        <v>13.543459</v>
+      </c>
+      <c r="O20">
+        <v>0.09254227409953211</v>
+      </c>
+      <c r="P20">
+        <v>0.09254227409953213</v>
+      </c>
+      <c r="Q20">
+        <v>0.07383442398166666</v>
+      </c>
+      <c r="R20">
+        <v>0.664509815835</v>
+      </c>
+      <c r="S20">
+        <v>0.001361218930577973</v>
+      </c>
+      <c r="T20">
+        <v>0.001361218930577974</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.016355</v>
+      </c>
+      <c r="H21">
+        <v>0.049065</v>
+      </c>
+      <c r="I21">
+        <v>0.01470915799101651</v>
+      </c>
+      <c r="J21">
+        <v>0.01470915799101651</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>8.335727666666667</v>
+      </c>
+      <c r="N21">
+        <v>25.007183</v>
+      </c>
+      <c r="O21">
+        <v>0.1708737467764446</v>
+      </c>
+      <c r="P21">
+        <v>0.1708737467764446</v>
+      </c>
+      <c r="Q21">
+        <v>0.1363308259883333</v>
+      </c>
+      <c r="R21">
+        <v>1.226977433895</v>
+      </c>
+      <c r="S21">
+        <v>0.002513408937851673</v>
+      </c>
+      <c r="T21">
+        <v>0.002513408937851673</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.1267976666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.380393</v>
+      </c>
+      <c r="I22">
+        <v>0.1140377200790124</v>
+      </c>
+      <c r="J22">
+        <v>0.1140377200790124</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>17.08155333333333</v>
+      </c>
+      <c r="N22">
+        <v>51.24466</v>
+      </c>
+      <c r="O22">
+        <v>0.3501540759902865</v>
+      </c>
+      <c r="P22">
+        <v>0.3501540759902865</v>
+      </c>
+      <c r="Q22">
+        <v>2.165901105708889</v>
+      </c>
+      <c r="R22">
+        <v>19.49310995138</v>
+      </c>
+      <c r="S22">
+        <v>0.03993077250230553</v>
+      </c>
+      <c r="T22">
+        <v>0.03993077250230553</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.1267976666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.380393</v>
+      </c>
+      <c r="I23">
+        <v>0.1140377200790124</v>
+      </c>
+      <c r="J23">
+        <v>0.1140377200790124</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>10.453073</v>
+      </c>
+      <c r="N23">
+        <v>31.359219</v>
+      </c>
+      <c r="O23">
+        <v>0.2142771237573249</v>
+      </c>
+      <c r="P23">
+        <v>0.2142771237573249</v>
+      </c>
+      <c r="Q23">
+        <v>1.325425265896333</v>
+      </c>
+      <c r="R23">
+        <v>11.928827393067</v>
+      </c>
+      <c r="S23">
+        <v>0.02443567465837372</v>
+      </c>
+      <c r="T23">
+        <v>0.02443567465837372</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.1267976666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.380393</v>
+      </c>
+      <c r="I24">
+        <v>0.1140377200790124</v>
+      </c>
+      <c r="J24">
+        <v>0.1140377200790124</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>8.398122666666666</v>
+      </c>
+      <c r="N24">
+        <v>25.194368</v>
+      </c>
+      <c r="O24">
+        <v>0.1721527793764119</v>
+      </c>
+      <c r="P24">
+        <v>0.1721527793764119</v>
+      </c>
+      <c r="Q24">
+        <v>1.064862358513778</v>
+      </c>
+      <c r="R24">
+        <v>9.583761226623999</v>
+      </c>
+      <c r="S24">
+        <v>0.01963191046535125</v>
+      </c>
+      <c r="T24">
+        <v>0.01963191046535125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.1267976666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.380393</v>
+      </c>
+      <c r="I25">
+        <v>0.1140377200790124</v>
+      </c>
+      <c r="J25">
+        <v>0.1140377200790124</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>4.514486333333333</v>
+      </c>
+      <c r="N25">
+        <v>13.543459</v>
+      </c>
+      <c r="O25">
+        <v>0.09254227409953211</v>
+      </c>
+      <c r="P25">
+        <v>0.09254227409953213</v>
+      </c>
+      <c r="Q25">
+        <v>0.5724263332652222</v>
+      </c>
+      <c r="R25">
+        <v>5.151836999387</v>
+      </c>
+      <c r="S25">
+        <v>0.01055330994923769</v>
+      </c>
+      <c r="T25">
+        <v>0.01055330994923769</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.1267976666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.380393</v>
+      </c>
+      <c r="I26">
+        <v>0.1140377200790124</v>
+      </c>
+      <c r="J26">
+        <v>0.1140377200790124</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>8.335727666666667</v>
+      </c>
+      <c r="N26">
+        <v>25.007183</v>
+      </c>
+      <c r="O26">
+        <v>0.1708737467764446</v>
+      </c>
+      <c r="P26">
+        <v>0.1708737467764446</v>
+      </c>
+      <c r="Q26">
+        <v>1.056950818102111</v>
+      </c>
+      <c r="R26">
+        <v>9.512557362919001</v>
+      </c>
+      <c r="S26">
+        <v>0.01948605250374424</v>
+      </c>
+      <c r="T26">
+        <v>0.01948605250374424</v>
       </c>
     </row>
   </sheetData>
